--- a/YosuvaCom/Runner.xlsx
+++ b/YosuvaCom/Runner.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ibase1-my.sharepoint.com/personal/yosuva_arulanthu_qualitestgroup_com/Documents/Documents/Ranorex/RanorexStudio Projects/YosuvaCom/YosuvaCom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yosuva\Ranorex\YosuvaCom\YosuvaCom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC1048DD09DD5DDA5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC53913A-F4F2-492A-B169-12B16F81BA46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232D6C44-A74D-462B-AA7C-E0691041BF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Description</t>
   </si>
@@ -45,10 +45,13 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Test_Name</t>
-  </si>
-  <si>
     <t>TestWithCustomizedActionsToGenerateClearReport</t>
+  </si>
+  <si>
+    <t>Test_ID</t>
+  </si>
+  <si>
+    <t>Ranorex</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,11 +112,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,6 +137,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -139,10 +156,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,21 +421,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -430,8 +446,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -439,10 +458,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -453,12 +472,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
